--- a/resultats/resultats_t2_2022.xlsx
+++ b/resultats/resultats_t2_2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t xml:space="preserve">structure</t>
   </si>
@@ -53,6 +53,9 @@
     <t xml:space="preserve">DI</t>
   </si>
   <si>
+    <t xml:space="preserve">DRFM</t>
+  </si>
+  <si>
     <t xml:space="preserve">DRH</t>
   </si>
   <si>
@@ -65,9 +68,6 @@
     <t xml:space="preserve">PNIN</t>
   </si>
   <si>
-    <t xml:space="preserve">RJDSN</t>
-  </si>
-  <si>
     <t xml:space="preserve">USE</t>
   </si>
   <si>
@@ -134,6 +134,15 @@
     <t xml:space="preserve">DE</t>
   </si>
   <si>
+    <t xml:space="preserve">DC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMP/EF</t>
+  </si>
+  <si>
     <t xml:space="preserve">DARC</t>
   </si>
   <si>
@@ -164,6 +173,15 @@
     <t xml:space="preserve">Taux de réalisation corrigé (%)</t>
   </si>
   <si>
+    <t xml:space="preserve">SOT/IES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSIG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP</t>
+  </si>
+  <si>
     <t xml:space="preserve">Service de la Coopération et de la Coordination des Statistiques Sectorielles (SCCSS)</t>
   </si>
   <si>
@@ -248,9 +266,6 @@
     <t xml:space="preserve">STD</t>
   </si>
   <si>
-    <t xml:space="preserve">SAS/R</t>
-  </si>
-  <si>
     <t xml:space="preserve">SCOS/AD</t>
   </si>
   <si>
@@ -258,6 +273,27 @@
   </si>
   <si>
     <t xml:space="preserve">SSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sce caisse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sce Caisse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sce Comptabilité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sce Logistique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sce Materiel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEF</t>
   </si>
   <si>
     <t xml:space="preserve">SAR</t>
@@ -350,8 +386,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E33" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:E33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E35" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:E35"/>
   <tableColumns count="5">
     <tableColumn id="1" name="structure"/>
     <tableColumn id="2" name="division"/>
@@ -364,8 +400,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:H70" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:H70"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:H78" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:H78"/>
   <tableColumns count="8">
     <tableColumn id="1" name="structure"/>
     <tableColumn id="2" name="division"/>
@@ -703,19 +739,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>63.4</v>
+        <v>96.8</v>
       </c>
       <c r="F2" t="n">
-        <v>15.8</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="3">
@@ -723,19 +759,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
         <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>41.4</v>
+        <v>75</v>
       </c>
       <c r="E3" t="n">
-        <v>63.4</v>
+        <v>96.8</v>
       </c>
       <c r="F3" t="n">
-        <v>46.9</v>
+        <v>80.4</v>
       </c>
     </row>
     <row r="4">
@@ -743,19 +779,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>260</v>
+        <v>211</v>
       </c>
       <c r="C4" t="n">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D4" t="n">
-        <v>85.4</v>
+        <v>98.1</v>
       </c>
       <c r="E4" t="n">
-        <v>63.4</v>
+        <v>96.8</v>
       </c>
       <c r="F4" t="n">
-        <v>79.9</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="5">
@@ -763,19 +799,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C5" t="n">
         <v>120</v>
       </c>
       <c r="D5" t="n">
-        <v>90.2</v>
+        <v>96.8</v>
       </c>
       <c r="E5" t="n">
-        <v>63.4</v>
+        <v>96.8</v>
       </c>
       <c r="F5" t="n">
-        <v>83.5</v>
+        <v>96.8</v>
       </c>
     </row>
     <row r="6">
@@ -783,19 +819,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>68.8</v>
+        <v>92.3</v>
       </c>
       <c r="E6" t="n">
-        <v>63.4</v>
+        <v>96.8</v>
       </c>
       <c r="F6" t="n">
-        <v>67.4</v>
+        <v>93.4</v>
       </c>
     </row>
     <row r="7">
@@ -803,19 +839,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>77.8</v>
       </c>
       <c r="E7" t="n">
-        <v>63.4</v>
+        <v>96.8</v>
       </c>
       <c r="F7" t="n">
-        <v>53.4</v>
+        <v>82.6</v>
       </c>
     </row>
     <row r="8">
@@ -823,19 +859,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E8" t="n">
-        <v>63.4</v>
+        <v>96.8</v>
       </c>
       <c r="F8" t="n">
-        <v>15.8</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="9">
@@ -843,19 +879,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="C9" t="n">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="D9" t="n">
-        <v>100</v>
+        <v>88.9</v>
       </c>
       <c r="E9" t="n">
-        <v>63.4</v>
+        <v>96.8</v>
       </c>
       <c r="F9" t="n">
-        <v>90.8</v>
+        <v>90.9</v>
       </c>
     </row>
     <row r="10">
@@ -863,19 +899,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D10" t="n">
-        <v>91.2</v>
+        <v>100</v>
       </c>
       <c r="E10" t="n">
-        <v>63.4</v>
+        <v>96.8</v>
       </c>
       <c r="F10" t="n">
-        <v>84.2</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="11">
@@ -883,19 +919,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E11" t="n">
-        <v>63.4</v>
+        <v>96.8</v>
       </c>
       <c r="F11" t="n">
-        <v>15.8</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="12">
@@ -903,19 +939,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>93.8</v>
       </c>
       <c r="E12" t="n">
-        <v>63.4</v>
+        <v>96.8</v>
       </c>
       <c r="F12" t="n">
-        <v>15.8</v>
+        <v>94.6</v>
       </c>
     </row>
     <row r="13">
@@ -923,19 +959,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
         <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>88.9</v>
+        <v>100</v>
       </c>
       <c r="E13" t="n">
-        <v>63.4</v>
+        <v>96.8</v>
       </c>
       <c r="F13" t="n">
-        <v>82.5</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="14">
@@ -943,19 +979,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>660</v>
+        <v>589</v>
       </c>
       <c r="C14" t="n">
-        <v>427</v>
+        <v>565</v>
       </c>
       <c r="D14" t="n">
-        <v>64.7</v>
+        <v>95.9</v>
       </c>
       <c r="E14" t="n">
-        <v>63.4</v>
+        <v>96.8</v>
       </c>
       <c r="F14" t="n">
-        <v>64.4</v>
+        <v>96.1</v>
       </c>
     </row>
   </sheetData>
@@ -1003,10 +1039,10 @@
         <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -1017,13 +1053,13 @@
         <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -1034,13 +1070,13 @@
         <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -1051,13 +1087,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
         <v>12</v>
       </c>
       <c r="E5" t="n">
-        <v>41.4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -1068,13 +1104,13 @@
         <v>23</v>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
         <v>15</v>
       </c>
       <c r="E6" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -1085,13 +1121,13 @@
         <v>24</v>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
         <v>8</v>
       </c>
       <c r="E7" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -1102,13 +1138,13 @@
         <v>25</v>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" t="n">
-        <v>85.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -1119,13 +1155,13 @@
         <v>26</v>
       </c>
       <c r="C9" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" t="n">
-        <v>91.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -1136,13 +1172,13 @@
         <v>27</v>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -1153,13 +1189,13 @@
         <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D11" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E11" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -1170,13 +1206,13 @@
         <v>29</v>
       </c>
       <c r="C12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" t="n">
-        <v>95.2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -1187,13 +1223,13 @@
         <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" t="n">
-        <v>93.9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -1204,13 +1240,13 @@
         <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D14" t="n">
         <v>19</v>
       </c>
       <c r="E14" t="n">
-        <v>90.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
@@ -1221,13 +1257,13 @@
         <v>32</v>
       </c>
       <c r="C15" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E15" t="n">
-        <v>51.7</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16">
@@ -1238,13 +1274,13 @@
         <v>33</v>
       </c>
       <c r="C16" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D16" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E16" t="n">
-        <v>82.1</v>
+        <v>94.4</v>
       </c>
     </row>
     <row r="17">
@@ -1272,13 +1308,13 @@
         <v>35</v>
       </c>
       <c r="C18" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D18" t="n">
         <v>38</v>
       </c>
       <c r="E18" t="n">
-        <v>92.7</v>
+        <v>97.4</v>
       </c>
     </row>
     <row r="19">
@@ -1289,13 +1325,13 @@
         <v>36</v>
       </c>
       <c r="C19" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D19" t="n">
         <v>53</v>
       </c>
       <c r="E19" t="n">
-        <v>88.3</v>
+        <v>94.6</v>
       </c>
     </row>
     <row r="20">
@@ -1306,13 +1342,13 @@
         <v>37</v>
       </c>
       <c r="C20" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D20" t="n">
         <v>29</v>
       </c>
       <c r="E20" t="n">
-        <v>90.6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
@@ -1323,13 +1359,13 @@
         <v>38</v>
       </c>
       <c r="C21" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E21" t="n">
-        <v>68.8</v>
+        <v>92.3</v>
       </c>
     </row>
     <row r="22">
@@ -1340,13 +1376,13 @@
         <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E22" t="n">
-        <v>50</v>
+        <v>77.8</v>
       </c>
     </row>
     <row r="23">
@@ -1357,13 +1393,13 @@
         <v>39</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
@@ -1374,27 +1410,27 @@
         <v>40</v>
       </c>
       <c r="C24" t="n">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
         <v>41</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>100</v>
@@ -1408,10 +1444,10 @@
         <v>42</v>
       </c>
       <c r="C26" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
         <v>100</v>
@@ -1425,13 +1461,13 @@
         <v>43</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="E27" t="n">
-        <v>100</v>
+        <v>88.3</v>
       </c>
     </row>
     <row r="28">
@@ -1442,13 +1478,13 @@
         <v>44</v>
       </c>
       <c r="C28" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>93.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
@@ -1456,16 +1492,16 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D29" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E29" t="n">
-        <v>83.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
@@ -1473,16 +1509,16 @@
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E30" t="n">
-        <v>92.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
@@ -1490,50 +1526,84 @@
         <v>15</v>
       </c>
       <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="n">
         <v>15</v>
       </c>
-      <c r="C31" t="n">
-        <v>45</v>
-      </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="n">
+        <v>12</v>
+      </c>
+      <c r="D33" t="n">
+        <v>12</v>
+      </c>
+      <c r="E33" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="n">
+        <v>30</v>
+      </c>
+      <c r="E34" t="n">
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
         <v>17</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>17</v>
       </c>
-      <c r="C33" t="n">
-        <v>9</v>
-      </c>
-      <c r="D33" t="n">
-        <v>8</v>
-      </c>
-      <c r="E33" t="n">
-        <v>88.9</v>
+      <c r="C35" t="n">
+        <v>8</v>
+      </c>
+      <c r="D35" t="n">
+        <v>8</v>
+      </c>
+      <c r="E35" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1561,7 +1631,7 @@
         <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1573,10 +1643,10 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2">
@@ -1586,135 +1656,153 @@
       <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="C2"/>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2"/>
-      <c r="H2"/>
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3"/>
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3"/>
-      <c r="H3"/>
+        <v>100</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4"/>
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4"/>
-      <c r="H4"/>
+        <v>100</v>
+      </c>
+      <c r="G4" t="n">
+        <v>100</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="D5" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>41.4</v>
+        <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>41.4</v>
+        <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>41.4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>88.9</v>
+        <v>100</v>
       </c>
       <c r="G6" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="H6" t="n">
-        <v>88.9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F7" t="n">
-        <v>66.7</v>
+        <v>75</v>
       </c>
       <c r="G7" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H7" t="n">
-        <v>66.7</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
@@ -1725,22 +1813,22 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D8" t="n">
         <v>8</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>62.5</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H8" t="n">
-        <v>62.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -1748,25 +1836,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H9" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -1774,25 +1862,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>87.5</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H10" t="n">
-        <v>87.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -1800,25 +1888,25 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H11" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -1829,19 +1917,19 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F12" t="n">
         <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H12" t="n">
         <v>100</v>
@@ -1852,25 +1940,25 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G13" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H13" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -1878,25 +1966,25 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D14" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>92.3</v>
+        <v>100</v>
       </c>
       <c r="G14" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H14" t="n">
-        <v>92.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
@@ -1907,19 +1995,19 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="D15" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H15" t="n">
         <v>100</v>
@@ -1930,25 +2018,25 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F16" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G16" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H16" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
@@ -1956,22 +2044,22 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" t="n">
         <v>100</v>
       </c>
       <c r="G17" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H17" t="n">
         <v>100</v>
@@ -1985,19 +2073,19 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
         <v>100</v>
       </c>
       <c r="G18" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H18" t="n">
         <v>100</v>
@@ -2011,19 +2099,19 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F19" t="n">
         <v>100</v>
       </c>
       <c r="G19" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H19" t="n">
         <v>100</v>
@@ -2034,22 +2122,22 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="D20" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F20" t="n">
         <v>100</v>
       </c>
       <c r="G20" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H20" t="n">
         <v>100</v>
@@ -2060,25 +2148,25 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D21" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
-        <v>94.1</v>
+        <v>100</v>
       </c>
       <c r="G21" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H21" t="n">
-        <v>94.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -2089,19 +2177,19 @@
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="D22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22" t="n">
         <v>100</v>
       </c>
       <c r="G22" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H22" t="n">
         <v>100</v>
@@ -2112,22 +2200,22 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F23" t="n">
         <v>100</v>
       </c>
       <c r="G23" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H23" t="n">
         <v>100</v>
@@ -2138,22 +2226,22 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24" t="n">
         <v>100</v>
       </c>
       <c r="G24" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H24" t="n">
         <v>100</v>
@@ -2167,22 +2255,22 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D25" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F25" t="n">
-        <v>85.7</v>
+        <v>100</v>
       </c>
       <c r="G25" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H25" t="n">
-        <v>85.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
@@ -2193,19 +2281,19 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F26" t="n">
         <v>100</v>
       </c>
       <c r="G26" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H26" t="n">
         <v>100</v>
@@ -2216,22 +2304,22 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F27" t="n">
         <v>100</v>
       </c>
       <c r="G27" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H27" t="n">
         <v>100</v>
@@ -2242,25 +2330,25 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="D28" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E28" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F28" t="n">
-        <v>93.3</v>
+        <v>100</v>
       </c>
       <c r="G28" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H28" t="n">
-        <v>93.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
@@ -2271,22 +2359,22 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D29" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E29" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F29" t="n">
-        <v>92.3</v>
+        <v>100</v>
       </c>
       <c r="G29" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H29" t="n">
-        <v>92.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
@@ -2294,25 +2382,25 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F30" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G30" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H30" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
@@ -2320,25 +2408,25 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D31" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E31" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F31" t="n">
-        <v>83.3</v>
+        <v>100</v>
       </c>
       <c r="G31" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H31" t="n">
-        <v>83.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32">
@@ -2349,19 +2437,19 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="D32" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E32" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F32" t="n">
         <v>100</v>
       </c>
       <c r="G32" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H32" t="n">
         <v>100</v>
@@ -2375,19 +2463,19 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F33" t="n">
         <v>100</v>
       </c>
       <c r="G33" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H33" t="n">
         <v>100</v>
@@ -2398,25 +2486,25 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="D34" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G34" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H34" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35">
@@ -2424,22 +2512,22 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D35" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E35" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F35" t="n">
         <v>100</v>
       </c>
       <c r="G35" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H35" t="n">
         <v>100</v>
@@ -2453,22 +2541,22 @@
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="G36" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H36" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="37">
@@ -2479,22 +2567,22 @@
         <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D37" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>90.9</v>
       </c>
       <c r="G37" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H37" t="n">
-        <v>60</v>
+        <v>90.9</v>
       </c>
     </row>
     <row r="38">
@@ -2502,22 +2590,22 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="D38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F38" t="n">
         <v>100</v>
       </c>
       <c r="G38" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H38" t="n">
         <v>100</v>
@@ -2528,25 +2616,25 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D39" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E39" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F39" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="G39" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H39" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40">
@@ -2557,22 +2645,22 @@
         <v>33</v>
       </c>
       <c r="C40" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="D40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>66.7</v>
+        <v>100</v>
       </c>
       <c r="G40" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H40" t="n">
-        <v>66.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41">
@@ -2580,22 +2668,22 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C41" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D41" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F41" t="n">
         <v>100</v>
       </c>
       <c r="G41" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H41" t="n">
         <v>100</v>
@@ -2603,54 +2691,54 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C42" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D42" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E42" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>100</v>
+        <v>66.7</v>
       </c>
       <c r="G42" t="n">
         <v>66.7</v>
       </c>
       <c r="H42" t="n">
-        <v>100</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C43" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D43" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E43" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F43" t="n">
-        <v>82.4</v>
+        <v>100</v>
       </c>
       <c r="G43" t="n">
         <v>66.7</v>
       </c>
       <c r="H43" t="n">
-        <v>82.4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44">
@@ -2658,25 +2746,25 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D44" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E44" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F44" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="G44" t="n">
-        <v>66.7</v>
+        <v>91.9</v>
       </c>
       <c r="H44" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45">
@@ -2684,25 +2772,25 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C45" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D45" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E45" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F45" t="n">
-        <v>95</v>
+        <v>93.3</v>
       </c>
       <c r="G45" t="n">
-        <v>66.7</v>
+        <v>91.9</v>
       </c>
       <c r="H45" t="n">
-        <v>95</v>
+        <v>93.3</v>
       </c>
     </row>
     <row r="46">
@@ -2710,25 +2798,25 @@
         <v>9</v>
       </c>
       <c r="B46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" t="n">
         <v>37</v>
       </c>
-      <c r="C46" t="s">
-        <v>71</v>
-      </c>
-      <c r="D46" t="n">
-        <v>20</v>
-      </c>
       <c r="E46" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F46" t="n">
-        <v>100</v>
+        <v>91.9</v>
       </c>
       <c r="G46" t="n">
-        <v>66.7</v>
+        <v>91.9</v>
       </c>
       <c r="H46" t="n">
-        <v>100</v>
+        <v>91.9</v>
       </c>
     </row>
     <row r="47">
@@ -2736,22 +2824,22 @@
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D47" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E47" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F47" t="n">
         <v>100</v>
       </c>
       <c r="G47" t="n">
-        <v>66.7</v>
+        <v>91.9</v>
       </c>
       <c r="H47" t="n">
         <v>100</v>
@@ -2765,45 +2853,45 @@
         <v>37</v>
       </c>
       <c r="C48" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D48" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E48" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F48" t="n">
-        <v>66.7</v>
+        <v>100</v>
       </c>
       <c r="G48" t="n">
-        <v>66.7</v>
+        <v>91.9</v>
       </c>
       <c r="H48" t="n">
-        <v>66.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C49" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F49" t="n">
         <v>100</v>
       </c>
       <c r="G49" t="n">
-        <v>20</v>
+        <v>91.9</v>
       </c>
       <c r="H49" t="n">
         <v>100</v>
@@ -2811,28 +2899,28 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C50" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D50" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F50" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G50" t="n">
-        <v>20</v>
+        <v>91.9</v>
       </c>
       <c r="H50" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51">
@@ -2843,74 +2931,74 @@
         <v>38</v>
       </c>
       <c r="C51" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D51" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E51" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F51" t="n">
-        <v>85.7</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
-        <v>20</v>
+        <v>87.5</v>
       </c>
       <c r="H51" t="n">
-        <v>85.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
-        <v>42.9</v>
+        <v>87.5</v>
       </c>
       <c r="H52" t="n">
-        <v>42.9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D53" t="n">
+        <v>8</v>
+      </c>
+      <c r="E53" t="n">
         <v>7</v>
       </c>
-      <c r="E53" t="n">
-        <v>3</v>
-      </c>
       <c r="F53" t="n">
-        <v>42.9</v>
+        <v>87.5</v>
       </c>
       <c r="G53" t="n">
-        <v>42.9</v>
+        <v>87.5</v>
       </c>
       <c r="H53" t="n">
-        <v>42.9</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="54">
@@ -2921,22 +3009,22 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D54" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F54" t="n">
-        <v>44.4</v>
+        <v>75</v>
       </c>
       <c r="G54" t="n">
-        <v>42.9</v>
+        <v>75</v>
       </c>
       <c r="H54" t="n">
-        <v>44.4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55">
@@ -2947,105 +3035,117 @@
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E55" t="n">
         <v>3</v>
       </c>
       <c r="F55" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G55" t="n">
-        <v>42.9</v>
+        <v>75</v>
       </c>
       <c r="H55" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56"/>
-      <c r="H56"/>
+        <v>100</v>
+      </c>
+      <c r="G56" t="n">
+        <v>75</v>
+      </c>
+      <c r="H56" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C57" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D57" t="n">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57"/>
-      <c r="H57"/>
+        <v>100</v>
+      </c>
+      <c r="G57" t="n">
+        <v>100</v>
+      </c>
+      <c r="H57" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C58" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D58" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58"/>
-      <c r="H58"/>
+        <v>100</v>
+      </c>
+      <c r="G58" t="n">
+        <v>100</v>
+      </c>
+      <c r="H58" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C59" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F59" t="n">
         <v>100</v>
@@ -3059,13 +3159,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C60" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D60" t="n">
         <v>1</v>
@@ -3085,19 +3185,19 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C61" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F61" t="n">
         <v>100</v>
@@ -3111,19 +3211,19 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C62" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D62" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
         <v>100</v>
@@ -3137,19 +3237,19 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C63" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F63" t="n">
         <v>100</v>
@@ -3163,19 +3263,19 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C64" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
         <v>100</v>
@@ -3189,142 +3289,358 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>44</v>
-      </c>
-      <c r="C65"/>
+        <v>42</v>
+      </c>
+      <c r="C65" t="s">
+        <v>93</v>
+      </c>
       <c r="D65" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E65" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F65" t="n">
-        <v>93.3</v>
+        <v>100</v>
       </c>
       <c r="G65" t="n">
-        <v>83.3</v>
+        <v>63.6</v>
       </c>
       <c r="H65" t="n">
-        <v>93.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>38</v>
-      </c>
-      <c r="C66"/>
+        <v>43</v>
+      </c>
+      <c r="C66" t="s">
+        <v>94</v>
+      </c>
       <c r="D66" t="n">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="E66" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F66" t="n">
-        <v>83.3</v>
+        <v>93.9</v>
       </c>
       <c r="G66" t="n">
-        <v>83.3</v>
+        <v>63.6</v>
       </c>
       <c r="H66" t="n">
-        <v>83.3</v>
+        <v>93.9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>45</v>
-      </c>
-      <c r="C67"/>
+        <v>43</v>
+      </c>
+      <c r="C67" t="s">
+        <v>95</v>
+      </c>
       <c r="D67" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E67" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F67" t="n">
-        <v>92.3</v>
+        <v>63.6</v>
       </c>
       <c r="G67" t="n">
-        <v>83.3</v>
+        <v>63.6</v>
       </c>
       <c r="H67" t="n">
-        <v>92.3</v>
+        <v>63.6</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
-      </c>
-      <c r="C68"/>
+        <v>44</v>
+      </c>
+      <c r="C68" t="s">
+        <v>96</v>
+      </c>
       <c r="D68" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68"/>
-      <c r="H68"/>
+        <v>100</v>
+      </c>
+      <c r="G68" t="n">
+        <v>100</v>
+      </c>
+      <c r="H68" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C69" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="D69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69"/>
-      <c r="H69"/>
+        <v>100</v>
+      </c>
+      <c r="G69" t="n">
+        <v>100</v>
+      </c>
+      <c r="H69" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" t="s">
+        <v>45</v>
+      </c>
+      <c r="C70" t="s">
+        <v>98</v>
+      </c>
+      <c r="D70" t="n">
+        <v>3</v>
+      </c>
+      <c r="E70" t="n">
+        <v>3</v>
+      </c>
+      <c r="F70" t="n">
+        <v>100</v>
+      </c>
+      <c r="G70" t="n">
+        <v>100</v>
+      </c>
+      <c r="H70" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" t="s">
+        <v>45</v>
+      </c>
+      <c r="C71" t="s">
+        <v>99</v>
+      </c>
+      <c r="D71" t="n">
+        <v>5</v>
+      </c>
+      <c r="E71" t="n">
+        <v>5</v>
+      </c>
+      <c r="F71" t="n">
+        <v>100</v>
+      </c>
+      <c r="G71" t="n">
+        <v>100</v>
+      </c>
+      <c r="H71" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" t="s">
+        <v>46</v>
+      </c>
+      <c r="C72" t="s">
+        <v>100</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" t="n">
+        <v>100</v>
+      </c>
+      <c r="G72" t="n">
+        <v>100</v>
+      </c>
+      <c r="H72" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73" t="s">
+        <v>101</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2</v>
+      </c>
+      <c r="F73" t="n">
+        <v>100</v>
+      </c>
+      <c r="G73" t="n">
+        <v>100</v>
+      </c>
+      <c r="H73" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" t="s">
+        <v>47</v>
+      </c>
+      <c r="C74"/>
+      <c r="D74" t="n">
+        <v>15</v>
+      </c>
+      <c r="E74" t="n">
+        <v>15</v>
+      </c>
+      <c r="F74" t="n">
+        <v>100</v>
+      </c>
+      <c r="G74" t="n">
+        <v>100</v>
+      </c>
+      <c r="H74" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75"/>
+      <c r="D75" t="n">
+        <v>5</v>
+      </c>
+      <c r="E75" t="n">
+        <v>5</v>
+      </c>
+      <c r="F75" t="n">
+        <v>100</v>
+      </c>
+      <c r="G75" t="n">
+        <v>100</v>
+      </c>
+      <c r="H75" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" t="s">
+        <v>48</v>
+      </c>
+      <c r="C76"/>
+      <c r="D76" t="n">
+        <v>12</v>
+      </c>
+      <c r="E76" t="n">
+        <v>12</v>
+      </c>
+      <c r="F76" t="n">
+        <v>100</v>
+      </c>
+      <c r="G76" t="n">
+        <v>100</v>
+      </c>
+      <c r="H76" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77"/>
+      <c r="D77" t="n">
+        <v>32</v>
+      </c>
+      <c r="E77" t="n">
+        <v>30</v>
+      </c>
+      <c r="F77" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="G77" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="H77" t="n">
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
         <v>17</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B78" t="s">
         <v>17</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C78" t="s">
         <v>17</v>
       </c>
-      <c r="D70" t="n">
-        <v>9</v>
-      </c>
-      <c r="E70" t="n">
-        <v>8</v>
-      </c>
-      <c r="F70" t="n">
-        <v>88.9</v>
-      </c>
-      <c r="G70" t="n">
-        <v>88.9</v>
-      </c>
-      <c r="H70" t="n">
-        <v>88.9</v>
+      <c r="D78" t="n">
+        <v>8</v>
+      </c>
+      <c r="E78" t="n">
+        <v>8</v>
+      </c>
+      <c r="F78" t="n">
+        <v>100</v>
+      </c>
+      <c r="G78" t="n">
+        <v>100</v>
+      </c>
+      <c r="H78" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3346,7 +3662,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3363,13 +3679,13 @@
         <v>18</v>
       </c>
       <c r="B2" t="n">
-        <v>366</v>
+        <v>311</v>
       </c>
       <c r="C2" t="n">
-        <v>232</v>
+        <v>301</v>
       </c>
       <c r="D2" t="n">
-        <v>63.4</v>
+        <v>96.8</v>
       </c>
     </row>
   </sheetData>

--- a/resultats/resultats_t2_2022.xlsx
+++ b/resultats/resultats_t2_2022.xlsx
@@ -10,12 +10,13 @@
     <sheet name="Division" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Service" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Dossiers_prioritaires" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Autres_agents" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t xml:space="preserve">structure</t>
   </si>
@@ -324,6 +325,17 @@
   </si>
   <si>
     <t xml:space="preserve">Dossier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appliquer aux agents 
+ mis à disposition 
+ en position de stage</t>
   </si>
 </sst>
 </file>
@@ -424,6 +436,17 @@
     <tableColumn id="2" name="Nombre de taches prévues"/>
     <tableColumn id="3" name="Nombre de taches réalisées"/>
     <tableColumn id="4" name="Taux de réalisation (%)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:B2" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:B2"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Structure"/>
+    <tableColumn id="2" name="Score"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -713,6 +736,14 @@
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="1" max="1" width="9.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="25.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="28.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="24.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="48.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="71.71" hidden="0" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -879,19 +910,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" t="n">
         <v>56</v>
       </c>
       <c r="D9" t="n">
-        <v>88.9</v>
+        <v>90.3</v>
       </c>
       <c r="E9" t="n">
         <v>96.8</v>
       </c>
       <c r="F9" t="n">
-        <v>90.9</v>
+        <v>91.9</v>
       </c>
     </row>
     <row r="10">
@@ -979,19 +1010,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C14" t="n">
         <v>565</v>
       </c>
       <c r="D14" t="n">
-        <v>95.9</v>
+        <v>96.1</v>
       </c>
       <c r="E14" t="n">
         <v>96.8</v>
       </c>
       <c r="F14" t="n">
-        <v>96.1</v>
+        <v>96.3</v>
       </c>
     </row>
   </sheetData>
@@ -1010,6 +1041,13 @@
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="1" max="1" width="9.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="13.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="25.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="28.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="24.71" hidden="0" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -1461,13 +1499,13 @@
         <v>43</v>
       </c>
       <c r="C27" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27" t="n">
         <v>53</v>
       </c>
       <c r="E27" t="n">
-        <v>88.3</v>
+        <v>89.8</v>
       </c>
     </row>
     <row r="28">
@@ -1622,6 +1660,16 @@
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="1" max="1" width="9.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="13.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="113.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="25.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="28.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="24.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="7.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="33.71" hidden="0" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -3307,7 +3355,7 @@
         <v>100</v>
       </c>
       <c r="G65" t="n">
-        <v>63.6</v>
+        <v>70</v>
       </c>
       <c r="H65" t="n">
         <v>100</v>
@@ -3333,7 +3381,7 @@
         <v>93.9</v>
       </c>
       <c r="G66" t="n">
-        <v>63.6</v>
+        <v>70</v>
       </c>
       <c r="H66" t="n">
         <v>93.9</v>
@@ -3350,19 +3398,19 @@
         <v>95</v>
       </c>
       <c r="D67" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E67" t="n">
         <v>7</v>
       </c>
       <c r="F67" t="n">
-        <v>63.6</v>
+        <v>70</v>
       </c>
       <c r="G67" t="n">
-        <v>63.6</v>
+        <v>70</v>
       </c>
       <c r="H67" t="n">
-        <v>63.6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68">
@@ -3659,6 +3707,12 @@
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="1" max="1" width="8.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="25.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="28.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="24.71" hidden="0" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -3695,4 +3749,41 @@
     <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="1" max="1" width="64.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="5.71" hidden="0" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="n">
+        <v>66.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId7"/>
+  </tableParts>
+</worksheet>
 </file>